--- a/Pout.xlsx
+++ b/Pout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,18 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -461,10 +473,22 @@
         <v>3.500000000166776</v>
       </c>
       <c r="D2" t="n">
+        <v>4.000000000418585</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.000000001475471</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.000000001474726</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.000000001245244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.000000001387157</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.000000003420442</v>
       </c>
     </row>
   </sheetData>

--- a/Pout.xlsx
+++ b/Pout.xlsx
@@ -464,31 +464,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.000000000190606</v>
+        <v>3.500000000571251</v>
       </c>
       <c r="B2" t="n">
-        <v>2.991852854504555</v>
+        <v>4.000000000652865</v>
       </c>
       <c r="C2" t="n">
-        <v>3.500000000166776</v>
+        <v>2.983705707254248</v>
       </c>
       <c r="D2" t="n">
-        <v>4.000000000418585</v>
+        <v>4.000000002510848</v>
       </c>
       <c r="E2" t="n">
-        <v>4.000000001475471</v>
+        <v>4.000000002509883</v>
       </c>
       <c r="F2" t="n">
-        <v>4.000000001474726</v>
+        <v>4.000000001033906</v>
       </c>
       <c r="G2" t="n">
-        <v>4.000000001245244</v>
+        <v>4.000000004932756</v>
       </c>
       <c r="H2" t="n">
-        <v>4.000000001387157</v>
+        <v>4.000000002207564</v>
       </c>
       <c r="I2" t="n">
-        <v>4.000000003420442</v>
+        <v>4.000000002395224</v>
       </c>
     </row>
   </sheetData>
